--- a/src/main/resources/Cleaned_Invitation_List.xlsx
+++ b/src/main/resources/Cleaned_Invitation_List.xlsx
@@ -5,38 +5,42 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imoalim/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imoalim/Documents/Java/guestlistQr/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0098FA58-EEC8-D447-99F8-0789EC4D060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123A26B-62CD-B641-8F14-43100ADE8C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Persons</t>
-  </si>
-  <si>
-    <t>xalwo</t>
-  </si>
-  <si>
     <t>Fadumo Warsan</t>
   </si>
   <si>
-    <t>Xalwo HIRSI</t>
-  </si>
-  <si>
     <t>Maleel</t>
   </si>
   <si>
@@ -67,21 +71,12 @@
     <t>Safiya Cumar</t>
   </si>
   <si>
-    <t>Deeqa</t>
-  </si>
-  <si>
     <t>Zuhayr Cali</t>
   </si>
   <si>
-    <t>Suldi Cali</t>
-  </si>
-  <si>
     <t>Xakiimo Abgalos</t>
   </si>
   <si>
-    <t>Farduus</t>
-  </si>
-  <si>
     <t>Amina Sahal</t>
   </si>
   <si>
@@ -118,9 +113,6 @@
     <t>Leyla ido</t>
   </si>
   <si>
-    <t>Ruqiyo dhulos</t>
-  </si>
-  <si>
     <t>Sacdiya innalillah</t>
   </si>
   <si>
@@ -130,9 +122,6 @@
     <t>JIjo Abu</t>
   </si>
   <si>
-    <t>Kafiya</t>
-  </si>
-  <si>
     <t>Aybintow</t>
   </si>
   <si>
@@ -148,15 +137,6 @@
     <t>Saciida</t>
   </si>
   <si>
-    <t>Idil  Maxaamed</t>
-  </si>
-  <si>
-    <t>Nimco</t>
-  </si>
-  <si>
-    <t>Nimco Walasheed</t>
-  </si>
-  <si>
     <t>Iisha</t>
   </si>
   <si>
@@ -193,9 +173,6 @@
     <t>Qamaray</t>
   </si>
   <si>
-    <t>Jamaad C/salan</t>
-  </si>
-  <si>
     <t>Sahra Xawaadle</t>
   </si>
   <si>
@@ -217,9 +194,6 @@
     <t>Shamsa Dheerey</t>
   </si>
   <si>
-    <t>Jija xuseen???</t>
-  </si>
-  <si>
     <t>Aamina Idris</t>
   </si>
   <si>
@@ -335,6 +309,69 @@
   </si>
   <si>
     <t>Salma Sacadow</t>
+  </si>
+  <si>
+    <t>Luul Bille</t>
+  </si>
+  <si>
+    <t>Fartun Cabdullahi Boy</t>
+  </si>
+  <si>
+    <t>Faafi</t>
+  </si>
+  <si>
+    <t>Malyuun Baded</t>
+  </si>
+  <si>
+    <t>Sahra Qalinle</t>
+  </si>
+  <si>
+    <t>Maryan Abgaal</t>
+  </si>
+  <si>
+    <t>Shukri Baftaale</t>
+  </si>
+  <si>
+    <t>Saynab Cige</t>
+  </si>
+  <si>
+    <t>Hodan Gacamey</t>
+  </si>
+  <si>
+    <t>xalwa c.cayiiy</t>
+  </si>
+  <si>
+    <t>Sucdi Cali</t>
+  </si>
+  <si>
+    <t>Farduus dhul</t>
+  </si>
+  <si>
+    <t>Idil  Maxamed</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Nimco Dawuud</t>
+  </si>
+  <si>
+    <t>Sundus Dawuud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kafiya </t>
+  </si>
+  <si>
+    <t>xalwa xirsi</t>
+  </si>
+  <si>
+    <t>Deeqa Gaas</t>
+  </si>
+  <si>
+    <t>Jamaad C_salan</t>
+  </si>
+  <si>
+    <t>Jija xuseen</t>
   </si>
 </sst>
 </file>
@@ -702,263 +739,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="175" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -966,15 +1009,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -982,23 +1025,23 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1006,39 +1049,39 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1046,63 +1089,63 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1110,39 +1153,39 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1150,79 +1193,79 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1230,71 +1273,71 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1302,119 +1345,119 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1422,138 +1465,202 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>94</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>98</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
